--- a/design/AGSE_BOM.xlsx
+++ b/design/AGSE_BOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\VADL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\VADL\agse\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
   <si>
     <t>Manufacturer Number</t>
   </si>
@@ -398,6 +398,24 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/STMicroelectronics/LD1085V50/?qs=sGAEpiMZZMsGz1a6aV8DcCRy2MVkeVbmq8UhGP29P1g%3d</t>
+  </si>
+  <si>
+    <t>Nylon 4-40 Standoffs</t>
+  </si>
+  <si>
+    <t>92745A320</t>
+  </si>
+  <si>
+    <t>50 pk Male-Female</t>
+  </si>
+  <si>
+    <t>Fuse Board, Other PCBs</t>
+  </si>
+  <si>
+    <t>4-40 1/4" pan head screws</t>
+  </si>
+  <si>
+    <t>90272A106</t>
   </si>
 </sst>
 </file>
@@ -852,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H4" si="0">F3*G3</f>
+        <f t="shared" ref="H3:H16" si="0">F3*G3</f>
         <v>6.58</v>
       </c>
       <c r="I3" t="s">
@@ -981,6 +999,121 @@
       </c>
       <c r="I4" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>12.6</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6">
+        <v>1.46</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -989,9 +1122,11 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3" location="91290a113/=11i0gxa" display="91290A111"/>
     <hyperlink ref="B4" r:id="rId4" location="8305a12/=11i0icf"/>
+    <hyperlink ref="B5" r:id="rId5" location="92745a320/=11in8yp"/>
+    <hyperlink ref="B6" r:id="rId6" location="90272a106/=11indgx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1000,12 +1135,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="134.85546875" bestFit="1" customWidth="1"/>
@@ -1111,7 +1246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/design/AGSE_BOM.xlsx
+++ b/design/AGSE_BOM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
   <si>
     <t>Manufacturer Number</t>
   </si>
@@ -416,6 +416,21 @@
   </si>
   <si>
     <t>90272A106</t>
+  </si>
+  <si>
+    <t>Big Red Emergency Stop</t>
+  </si>
+  <si>
+    <t>Emergency Stop</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/307/a165e_ds_e_7_2_csm1264-795350.pdf</t>
+  </si>
+  <si>
+    <t>A165E-01</t>
+  </si>
+  <si>
+    <t>SPST</t>
   </si>
 </sst>
 </file>
@@ -872,16 +887,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1056,9 +1071,33 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7">
+        <v>20.87</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20.87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1124,9 +1163,11 @@
     <hyperlink ref="B4" r:id="rId4" location="8305a12/=11i0icf"/>
     <hyperlink ref="B5" r:id="rId5" location="92745a320/=11in8yp"/>
     <hyperlink ref="B6" r:id="rId6" location="90272a106/=11indgx"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="E7" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/design/AGSE_BOM.xlsx
+++ b/design/AGSE_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\VADL\agse\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repos\agse\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Fuse_Board" sheetId="3" r:id="rId2"/>
     <sheet name="Arm_Motor_Controller" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="184">
   <si>
     <t>Manufacturer Number</t>
   </si>
@@ -416,6 +416,168 @@
   </si>
   <si>
     <t>90272A106</t>
+  </si>
+  <si>
+    <t>Motor Control PCB</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/149/FQP30N06L-244344.pdf</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/149/FQP27P06-244293.pdf</t>
+  </si>
+  <si>
+    <t>PFET</t>
+  </si>
+  <si>
+    <t>NFET</t>
+  </si>
+  <si>
+    <t>NPN Transisor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/302/BC846_SER-840048.pdf</t>
+  </si>
+  <si>
+    <t>5V Regulator</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/389/CD00001883-310744.pdf</t>
+  </si>
+  <si>
+    <t>LD1085V50</t>
+  </si>
+  <si>
+    <t>PTC for motors</t>
+  </si>
+  <si>
+    <t>MF-SMDF050-2</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/54/fsmdf2-777754.pdf</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/427/murs340-240280.pdf</t>
+  </si>
+  <si>
+    <t>MURS360-E3/57T</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/149/1N4148-888354.pdf</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/276/0022436030_PCB_HEADERS-227784.pdf</t>
+  </si>
+  <si>
+    <t>22-43-6030</t>
+  </si>
+  <si>
+    <t>SPOX-3 for AX12A</t>
+  </si>
+  <si>
+    <t>100uF Capacitor</t>
+  </si>
+  <si>
+    <t>UWT1V101MCL1GS</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/293/e-uwt-880115.pdf</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/396/mlcc_all_e-541559.pdf</t>
+  </si>
+  <si>
+    <t>10uF Capacitor</t>
+  </si>
+  <si>
+    <t>LMK316B7106KL-TD</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/281/c02e-2905.pdf</t>
+  </si>
+  <si>
+    <t>0.1uF Capacitor</t>
+  </si>
+  <si>
+    <t>GRM155R61A104KA01D</t>
+  </si>
+  <si>
+    <t>1.7K Resistor</t>
+  </si>
+  <si>
+    <t>3.3K Resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/427/tnpw_e3-64594.pdf</t>
+  </si>
+  <si>
+    <t>TNPW08051K69BEEA</t>
+  </si>
+  <si>
+    <t>TNPW08053K32BEEA</t>
+  </si>
+  <si>
+    <t>7K Resistor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/392/susumu_RR_Data_Sheet-358748.pdf</t>
+  </si>
+  <si>
+    <t>RR1220P-6981-D-M</t>
+  </si>
+  <si>
+    <t>10K Resistor</t>
+  </si>
+  <si>
+    <t>RR1220P-103-D</t>
+  </si>
+  <si>
+    <t>50 Resistor</t>
+  </si>
+  <si>
+    <t>PCF0805-02-49R9DT1</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/414/PCF-437472.pdf</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>PRT-12620</t>
+  </si>
+  <si>
+    <t>PRT-09918</t>
+  </si>
+  <si>
+    <t>http://www.sparkfun.com/datasheets/Prototyping/2pin_molex_set_19iv10.pdf</t>
+  </si>
+  <si>
+    <t>http://cdn.sparkfun.com/datasheets/Components/LED/S150ANB4.pdf</t>
+  </si>
+  <si>
+    <t>Molex 4 Locking</t>
+  </si>
+  <si>
+    <t>Molex 4 Locking 90deg</t>
+  </si>
+  <si>
+    <t>22-05-3041</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/276/0022053041_PCB_HEADERS-158631.pdf</t>
+  </si>
+  <si>
+    <t>22-23-2041</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/276/0022232041_PCB_HEADERS-526511.pdf</t>
+  </si>
+  <si>
+    <t>25 pk</t>
   </si>
 </sst>
 </file>
@@ -649,23 +811,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -701,23 +846,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -870,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="0">F3*G3</f>
+        <f t="shared" ref="H3:H27" si="0">F3*G3</f>
         <v>6.58</v>
       </c>
       <c r="I3" t="s">
@@ -1062,58 +1190,546 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8">
+        <v>1.28</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <v>0.13</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
+      </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11">
+        <v>1.49</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12">
+        <v>0.42</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13">
+        <v>0.7</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15">
+        <v>0.47</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16">
+        <v>0.36</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19">
+        <v>0.49</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20">
+        <v>0.48</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22">
+        <v>0.1</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23">
+        <v>0.1</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24">
+        <v>0.23</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25">
+        <v>0.71</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26">
+        <v>0.95</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <f>F26*G26</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F27">
+        <v>4.95</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
+      </c>
+      <c r="I27" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1124,9 +1740,28 @@
     <hyperlink ref="B4" r:id="rId4" location="8305a12/=11i0icf"/>
     <hyperlink ref="B5" r:id="rId5" location="92745a320/=11in8yp"/>
     <hyperlink ref="B6" r:id="rId6" location="90272a106/=11indgx"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E10" r:id="rId8"/>
+    <hyperlink ref="E11" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId10"/>
+    <hyperlink ref="E13" r:id="rId11"/>
+    <hyperlink ref="E14" r:id="rId12"/>
+    <hyperlink ref="E15" r:id="rId13"/>
+    <hyperlink ref="E16" r:id="rId14"/>
+    <hyperlink ref="E17" r:id="rId15"/>
+    <hyperlink ref="E18" r:id="rId16"/>
+    <hyperlink ref="E20" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E21" r:id="rId19"/>
+    <hyperlink ref="E22" r:id="rId20"/>
+    <hyperlink ref="E23" r:id="rId21"/>
+    <hyperlink ref="E26" r:id="rId22"/>
+    <hyperlink ref="E27" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E24" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/design/AGSE_BOM.xlsx
+++ b/design/AGSE_BOM.xlsx
@@ -427,10 +427,10 @@
     <t>http://www.mouser.com/ds/2/307/a165e_ds_e_7_2_csm1264-795350.pdf</t>
   </si>
   <si>
-    <t>A165E-01</t>
-  </si>
-  <si>
     <t>SPST</t>
+  </si>
+  <si>
+    <t>A165E-S-01</t>
   </si>
 </sst>
 </file>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1075,7 @@
         <v>130</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1087,17 +1087,17 @@
         <v>132</v>
       </c>
       <c r="F7">
-        <v>20.87</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>20.87</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">

--- a/design/AGSE_BOM.xlsx
+++ b/design/AGSE_BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
   <si>
     <t>Manufacturer Number</t>
   </si>
@@ -355,9 +355,6 @@
     <t>Cartridge Fuses FST 5X20 250V 2A</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Schurter/00343120/?qs=sGAEpiMZZMtxU2g%2f1juGqbdCHRI5TALuTEcwyPuzfR4%3d</t>
-  </si>
-  <si>
     <t>Fuse Holder</t>
   </si>
   <si>
@@ -431,6 +428,15 @@
   </si>
   <si>
     <t>A165E-S-01</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Littelfuse/0217002MXP/?qs=sGAEpiMZZMtxU2g%2f1juGqbdCHRI5TALuY7Y4dZG08Qk%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Littelfuse/0235003HXP/?qs=sGAEpiMZZMtxU2g%2f1juGqbdCHRI5TALupREhglK8MjI%3d</t>
+  </si>
+  <si>
+    <t>Cartridge Fuses FST 5X20 250V 3A</t>
   </si>
 </sst>
 </file>
@@ -887,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1018,16 +1024,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5">
         <v>12.6</v>
@@ -1040,21 +1046,21 @@
         <v>12.6</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6">
         <v>1.46</v>
@@ -1072,19 +1078,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F7">
         <v>32</v>
@@ -1097,7 +1103,7 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1212,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>101</v>
@@ -1223,7 +1229,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>101</v>
@@ -1249,27 +1255,38 @@
         <v>108</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>113</v>
+      <c r="C5" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>114</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1294,7 @@
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1384,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,16 +1476,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="D11" s="6">
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,16 +1662,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="D31" s="6">
         <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,16 +1679,16 @@
         <v>92</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" s="6">
         <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">

--- a/design/AGSE_BOM.xlsx
+++ b/design/AGSE_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Documents\VADL\agse\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repos\agse\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Fuse_Board" sheetId="3" r:id="rId2"/>
     <sheet name="Arm_Motor_Controller" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="222">
   <si>
     <t>Manufacturer Number</t>
   </si>
@@ -437,6 +437,261 @@
   </si>
   <si>
     <t>Cartridge Fuses FST 5X20 250V 3A</t>
+  </si>
+  <si>
+    <t>PFET</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/149/FQP27P06-244293.pdf</t>
+  </si>
+  <si>
+    <t>NFET</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/149/FQP30N06L-244344.pdf</t>
+  </si>
+  <si>
+    <t>NPN Transisor</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/302/BC846_SER-840048.pdf</t>
+  </si>
+  <si>
+    <t>5V Regulator</t>
+  </si>
+  <si>
+    <t>LD1085V50</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/389/CD00001883-310744.pdf</t>
+  </si>
+  <si>
+    <t>PTC for motors</t>
+  </si>
+  <si>
+    <t>MF-SMDF050-2</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/54/fsmdf2-777754.pdf</t>
+  </si>
+  <si>
+    <t>MURS360-E3/57T</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/427/murs340-240280.pdf</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/149/1N4148-888354.pdf</t>
+  </si>
+  <si>
+    <t>SPOX-3 for AX12A</t>
+  </si>
+  <si>
+    <t>22-43-6030</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/276/0022436030_PCB_HEADERS-227784.pdf</t>
+  </si>
+  <si>
+    <t>100uF Capacitor</t>
+  </si>
+  <si>
+    <t>UWT1V101MCL1GS</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/293/e-uwt-880115.pdf</t>
+  </si>
+  <si>
+    <t>10uF Capacitor</t>
+  </si>
+  <si>
+    <t>LMK316B7106KL-TD</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/396/mlcc_all_e-541559.pdf</t>
+  </si>
+  <si>
+    <t>0.1uF Capacitor</t>
+  </si>
+  <si>
+    <t>GRM155R61A104KA01D</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/281/c02e-2905.pdf</t>
+  </si>
+  <si>
+    <t>1.7K Resistor</t>
+  </si>
+  <si>
+    <t>TNPW08051K69BEEA</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/427/tnpw_e3-64594.pdf</t>
+  </si>
+  <si>
+    <t>3.3K Resistor</t>
+  </si>
+  <si>
+    <t>TNPW08053K32BEEA</t>
+  </si>
+  <si>
+    <t>7K Resistor</t>
+  </si>
+  <si>
+    <t>RR1220P-6981-D-M</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/392/susumu_RR_Data_Sheet-358748.pdf</t>
+  </si>
+  <si>
+    <t>10K Resistor</t>
+  </si>
+  <si>
+    <t>RR1220P-103-D</t>
+  </si>
+  <si>
+    <t>50 Resistor</t>
+  </si>
+  <si>
+    <t>PCF0805-02-49R9DT1</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/414/PCF-437472.pdf</t>
+  </si>
+  <si>
+    <t>Molex 4 Locking</t>
+  </si>
+  <si>
+    <t>22-23-2041</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/276/0022232041_PCB_HEADERS-526511.pdf</t>
+  </si>
+  <si>
+    <t>Molex 4 Locking 90deg</t>
+  </si>
+  <si>
+    <t>22-05-3041</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/276/0022053041_PCB_HEADERS-158631.pdf</t>
+  </si>
+  <si>
+    <t>PRT-09918</t>
+  </si>
+  <si>
+    <t>http://www.sparkfun.com/datasheets/Prototyping/2pin_molex_set_19iv10.pdf</t>
+  </si>
+  <si>
+    <t>PRT-12620</t>
+  </si>
+  <si>
+    <t>http://cdn.sparkfun.com/datasheets/Components/LED/S150ANB4.pdf</t>
+  </si>
+  <si>
+    <t>H-Bridge PFETs for linear actuators</t>
+  </si>
+  <si>
+    <t>H-Bridge NFETs for linear actuators</t>
+  </si>
+  <si>
+    <t>NPNs for serial buffer and H-Bridge control</t>
+  </si>
+  <si>
+    <t>Power supply for BBB</t>
+  </si>
+  <si>
+    <t>Protection for H-Bridges</t>
+  </si>
+  <si>
+    <t>Reverse-voltage protection for BBB</t>
+  </si>
+  <si>
+    <t>current-direction protection</t>
+  </si>
+  <si>
+    <t>Board socket connectors to servos</t>
+  </si>
+  <si>
+    <t>power filtering</t>
+  </si>
+  <si>
+    <t>Divider from 5V to 3.3V</t>
+  </si>
+  <si>
+    <t>Divider from 12V 5V</t>
+  </si>
+  <si>
+    <t>Input to NPNs</t>
+  </si>
+  <si>
+    <t>Current limit for LEDs</t>
+  </si>
+  <si>
+    <t>Jumper to Encoders</t>
+  </si>
+  <si>
+    <t>Jumpers for power I/O and limit switches</t>
+  </si>
+  <si>
+    <t>Board info output</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>datasheet</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/NXP-Semiconductors/BC846B215/?qs=sGAEpiMZZMshyDBzk1%2fWi7dklbCN21lX08PuvlTNczo%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/STMicroelectronics/LD1085V50/?qs=%2fha2pyFaduiv2IMs480QmITzPxS1Vh%2fgYG9vVn1LFHc%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Bourns/MF-SMDF050-2/?qs=%2fha2pyFadugRxmjs%252bjW1cdcZ9r%2f%2f%2fdrvoFJN7YKV9vIAlVTlJKIuiQ%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay/MURS360-E3-57T/?qs=%2fha2pyFaduhSlvpVvmceRrvkf484AHRwaZpbzDbkkOLAs29hYt7Juw%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Fairchild-Semiconductor/1N4148/?qs=sGAEpiMZZMtoHjESLttvkoBU6cp6%252bZs9oaGbBohzXiI%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Nichicon/UWT1V101MCL1GS/?qs=%2fha2pyFadujfH%252bhB5BP80zfdCev2UQNYlYLRxfmrhijVX6qy41d1Mw%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Taiyo-Yuden/LMK316B7106KL-TD/?qs=%2fha2pyFaduirNxTdhyXV1O8YPBLt%252b2LsltXm0XbrX72HQ8VjSCHsnQ%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Murata/GRM155R61A104KA01D/?qs=%2fha2pyFadugsr51Fgcs3VCbVyRVA5lqhLYYAdIsgaF6CYt3pYJPH7A%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay/TNPW08051K69BEEA/?qs=sGAEpiMZZMu61qfTUdNhGxJRuluY1gSVs83Z9OhzxZo%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Vishay/TNPW08053K32BEEA/?qs=sGAEpiMZZMu61qfTUdNhGxJRuluY1gSVsKKI2lsPAbk%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Susumu/RR1220P-6981-D-M/?qs=%2fha2pyFaduhWgMOgZQJAgCCBcKu0ErFf63rD%252bP0S1AxaFIJl7KsBrQ%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Susumu/RR1220P-103-D/?qs=%2fha2pyFaduhWgMOgZQJAgDbBc5Gt4PiGbWH8H5h1IKplz6R4dmRg1g%3d%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TT-Electronics/PCF0805-02-49R9DT1/?qs=%2fha2pyFaduhKVCDQA1uNZdTRrH%252bnCtYY6sxvkH3rc0NCtZ%252bjPcN8TZlzdqymE6a9</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/22-23-2041/?qs=%2fha2pyFadui05csbord1TMsF5snYzfCUIYoKbwTHl0Q%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Molex/22-05-3041/?qs=%2fha2pyFaduhIxKSdWb6Tw%252bTZJ%2fqNNluImOvgXV2Do3c%3d</t>
   </si>
 </sst>
 </file>
@@ -670,23 +925,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -722,23 +960,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1179,21 +1400,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="134.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1227,7 +1449,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -1244,7 +1466,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -1261,7 +1483,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
         <v>136</v>
       </c>
@@ -1272,7 +1494,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -1289,12 +1511,603 @@
         <v>113</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8">
+        <v>1.28</v>
+      </c>
+      <c r="J8">
+        <f>H8*D8</f>
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J9">
+        <f>H9*D9</f>
+        <v>22.200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10">
+        <v>0.13</v>
+      </c>
+      <c r="J10">
+        <f>H10*D10</f>
+        <v>7.8000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11">
+        <v>1.49</v>
+      </c>
+      <c r="J11">
+        <f>H11*D11</f>
+        <v>11.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12">
+        <v>0.42</v>
+      </c>
+      <c r="J12">
+        <f>H12*D12</f>
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13">
+        <v>0.7</v>
+      </c>
+      <c r="J13">
+        <f>H13*D13</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <f>H14*D14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15">
+        <v>0.47</v>
+      </c>
+      <c r="J15">
+        <f>H15*D15</f>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16">
+        <v>0.36</v>
+      </c>
+      <c r="J16">
+        <f>H16*D16</f>
+        <v>5.3999999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J17">
+        <f>H17*D17</f>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <f>H18*D18</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19">
+        <v>0.49</v>
+      </c>
+      <c r="J19">
+        <f>H19*D19</f>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20">
+        <v>0.48</v>
+      </c>
+      <c r="J20">
+        <f>H20*D20</f>
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="J21">
+        <f>H21*D21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="J22">
+        <f>H22*D22</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <f>H23*D23</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24">
+        <v>0.23</v>
+      </c>
+      <c r="J24">
+        <f>H24*D24</f>
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25">
+        <v>0.71</v>
+      </c>
+      <c r="J25">
+        <f>H25*D25</f>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26">
+        <v>0.95</v>
+      </c>
+      <c r="J26">
+        <f>H26*D26</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27">
+        <v>4.95</v>
+      </c>
+      <c r="J27">
+        <f>H27*D27</f>
+        <v>4.95</v>
+      </c>
+    </row>
   </sheetData>
+  <dataConsolidate/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
     <hyperlink ref="E4" r:id="rId3"/>
     <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G13" r:id="rId9"/>
+    <hyperlink ref="G14" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId13"/>
+    <hyperlink ref="G18" r:id="rId14"/>
+    <hyperlink ref="G20" r:id="rId15"/>
+    <hyperlink ref="G19" r:id="rId16"/>
+    <hyperlink ref="G21" r:id="rId17"/>
+    <hyperlink ref="G22" r:id="rId18"/>
+    <hyperlink ref="G23" r:id="rId19"/>
+    <hyperlink ref="G26" r:id="rId20"/>
+    <hyperlink ref="G27" r:id="rId21"/>
+    <hyperlink ref="G25" r:id="rId22"/>
+    <hyperlink ref="G24" r:id="rId23"/>
+    <hyperlink ref="E8" r:id="rId24"/>
+    <hyperlink ref="E9" r:id="rId25"/>
+    <hyperlink ref="E10" r:id="rId26"/>
+    <hyperlink ref="E11" r:id="rId27"/>
+    <hyperlink ref="E12" r:id="rId28"/>
+    <hyperlink ref="E13" r:id="rId29"/>
+    <hyperlink ref="E14" r:id="rId30"/>
+    <hyperlink ref="E15" r:id="rId31"/>
+    <hyperlink ref="E16" r:id="rId32"/>
+    <hyperlink ref="E17" r:id="rId33"/>
+    <hyperlink ref="E18" r:id="rId34"/>
+    <hyperlink ref="E19" r:id="rId35"/>
+    <hyperlink ref="E20" r:id="rId36"/>
+    <hyperlink ref="E21" r:id="rId37"/>
+    <hyperlink ref="E22" r:id="rId38"/>
+    <hyperlink ref="E23" r:id="rId39"/>
+    <hyperlink ref="E24" r:id="rId40"/>
+    <hyperlink ref="E25" r:id="rId41"/>
+    <hyperlink ref="E26" r:id="rId42"/>
+    <hyperlink ref="E27" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/design/AGSE_BOM.xlsx
+++ b/design/AGSE_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Repos\agse\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dexte_000\OneDrive\Documents\VADL\agse\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Fuse_Board" sheetId="3" r:id="rId2"/>
     <sheet name="Arm_Motor_Controller" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="226">
   <si>
     <t>Manufacturer Number</t>
   </si>
@@ -352,9 +352,6 @@
     <t>2A</t>
   </si>
   <si>
-    <t>Cartridge Fuses FST 5X20 250V 2A</t>
-  </si>
-  <si>
     <t>Fuse Holder</t>
   </si>
   <si>
@@ -430,15 +427,6 @@
     <t>A165E-S-01</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Littelfuse/0217002MXP/?qs=sGAEpiMZZMtxU2g%2f1juGqbdCHRI5TALuY7Y4dZG08Qk%3d</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Littelfuse/0235003HXP/?qs=sGAEpiMZZMtxU2g%2f1juGqbdCHRI5TALupREhglK8MjI%3d</t>
-  </si>
-  <si>
-    <t>Cartridge Fuses FST 5X20 250V 3A</t>
-  </si>
-  <si>
     <t>PFET</t>
   </si>
   <si>
@@ -692,6 +680,30 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Molex/22-05-3041/?qs=%2fha2pyFaduhIxKSdWb6Tw%252bTZJ%2fqNNluImOvgXV2Do3c%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/307/g6d-asi_0911-17274.pdf</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/358/typ_OGN-14523.pdf</t>
+  </si>
+  <si>
+    <t>Cartridge Fuses FSF 5X20 250V 2A</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Schurter/00341519/?qs=sGAEpiMZZMtxU2g%2f1juGqbdCHRI5TALuXVSOpNRecTw%3d</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/358/typ_FSF_5x20-793250.pdf</t>
+  </si>
+  <si>
+    <t>Cartridge Fuses FSF 5X20 250V 3.15A</t>
+  </si>
+  <si>
+    <t>3.15A</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Schurter/00341521/?qs=sGAEpiMZZMtxU2g%2f1juGqbdCHRI5TALuM6uv50u%252b5gQ%3d</t>
   </si>
 </sst>
 </file>
@@ -805,7 +817,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -825,9 +837,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -925,6 +934,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -960,6 +986,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1245,16 +1288,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5">
         <v>12.6</v>
@@ -1267,21 +1310,21 @@
         <v>12.6</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6">
         <v>1.46</v>
@@ -1299,19 +1342,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F7">
         <v>32</v>
@@ -1324,7 +1367,7 @@
         <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1400,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,7 +1455,8 @@
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="134.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1431,10 +1475,20 @@
       <c r="E1" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>101</v>
@@ -1443,15 +1497,25 @@
         <v>102</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2">
+        <v>5.74</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J7" si="0">H2*D2</f>
+        <v>11.48</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>101</v>
@@ -1460,10 +1524,20 @@
         <v>104</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>105</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3">
+        <v>2.6</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1473,64 +1547,89 @@
       <c r="B4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>108</v>
+      <c r="C4" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>221</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4">
+        <v>0.18</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
-        <v>136</v>
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>135</v>
+        <v>225</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5">
+        <v>0.18</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" t="s">
-        <v>204</v>
-      </c>
-      <c r="J7" t="s">
-        <v>206</v>
+      <c r="G6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6">
+        <v>0.64</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>3.84</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1539,25 +1638,25 @@
         <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H8">
         <v>1.28</v>
       </c>
       <c r="J8">
-        <f>H8*D8</f>
+        <f t="shared" ref="J8:J27" si="1">H8*D8</f>
         <v>25.6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -1566,94 +1665,94 @@
         <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H9">
         <v>1.1100000000000001</v>
       </c>
       <c r="J9">
-        <f>H9*D9</f>
+        <f t="shared" si="1"/>
         <v>22.200000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D10">
         <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H10">
         <v>0.13</v>
       </c>
       <c r="J10">
-        <f>H10*D10</f>
+        <f t="shared" si="1"/>
         <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H11">
         <v>1.49</v>
       </c>
       <c r="J11">
-        <f>H11*D11</f>
+        <f t="shared" si="1"/>
         <v>11.92</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H12">
         <v>0.42</v>
       </c>
       <c r="J12">
-        <f>H12*D12</f>
+        <f t="shared" si="1"/>
         <v>6.72</v>
       </c>
     </row>
@@ -1662,25 +1761,25 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H13">
         <v>0.7</v>
       </c>
       <c r="J13">
-        <f>H13*D13</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -1689,37 +1788,37 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H14">
         <v>0.1</v>
       </c>
       <c r="J14">
-        <f>H14*D14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -1728,311 +1827,311 @@
         <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H15">
         <v>0.47</v>
       </c>
       <c r="J15">
-        <f>H15*D15</f>
+        <f t="shared" si="1"/>
         <v>7.05</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H16">
         <v>0.36</v>
       </c>
       <c r="J16">
-        <f>H16*D16</f>
+        <f t="shared" si="1"/>
         <v>5.3999999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H17">
         <v>0.28999999999999998</v>
       </c>
       <c r="J17">
-        <f>H17*D17</f>
+        <f t="shared" si="1"/>
         <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H18">
         <v>0.1</v>
       </c>
       <c r="J18">
-        <f>H18*D18</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D19">
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H19">
         <v>0.49</v>
       </c>
       <c r="J19">
-        <f>H19*D19</f>
+        <f t="shared" si="1"/>
         <v>14.7</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D20">
         <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H20">
         <v>0.48</v>
       </c>
       <c r="J20">
-        <f>H20*D20</f>
+        <f t="shared" si="1"/>
         <v>14.399999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H21">
         <v>0.1</v>
       </c>
       <c r="J21">
-        <f>H21*D21</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D22">
         <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H22">
         <v>0.1</v>
       </c>
       <c r="J22">
-        <f>H22*D22</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D23">
         <v>25</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H23">
         <v>0.1</v>
       </c>
       <c r="J23">
-        <f>H23*D23</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H24">
         <v>0.23</v>
       </c>
       <c r="J24">
-        <f>H24*D24</f>
+        <f t="shared" si="1"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D25">
         <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H25">
         <v>0.71</v>
       </c>
       <c r="J25">
-        <f>H25*D25</f>
+        <f t="shared" si="1"/>
         <v>7.1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H26">
         <v>0.95</v>
       </c>
       <c r="J26">
-        <f>H26*D26</f>
-        <v>9.5</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2040,10 +2139,10 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2052,14 +2151,20 @@
         <v>51</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H27">
         <v>4.95</v>
       </c>
       <c r="J27">
-        <f>H27*D27</f>
+        <f t="shared" si="1"/>
         <v>4.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f>SUM(J2:J28)</f>
+        <v>193.10999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2108,8 +2213,15 @@
     <hyperlink ref="E25" r:id="rId41"/>
     <hyperlink ref="E26" r:id="rId42"/>
     <hyperlink ref="E27" r:id="rId43"/>
+    <hyperlink ref="G2" r:id="rId44"/>
+    <hyperlink ref="G3" r:id="rId45"/>
+    <hyperlink ref="G4" r:id="rId46"/>
+    <hyperlink ref="E5" r:id="rId47"/>
+    <hyperlink ref="G5" r:id="rId48"/>
+    <hyperlink ref="G6" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -2214,7 +2326,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2289,16 +2401,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="D11" s="6">
         <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2475,16 +2587,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="D31" s="6">
         <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2492,16 +2604,16 @@
         <v>92</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="6">
         <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">

--- a/design/AGSE_BOM.xlsx
+++ b/design/AGSE_BOM.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hardware" sheetId="1" r:id="rId1"/>
-    <sheet name="Fuse_Board" sheetId="3" r:id="rId2"/>
-    <sheet name="Arm_Motor_Controller" sheetId="2" r:id="rId3"/>
+    <sheet name="PCB_Boards" sheetId="4" r:id="rId2"/>
+    <sheet name="Fuse_Board" sheetId="3" r:id="rId3"/>
+    <sheet name="Arm_Motor_Controller" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="235">
   <si>
     <t>Manufacturer Number</t>
   </si>
@@ -704,13 +705,43 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Schurter/00341521/?qs=sGAEpiMZZMtxU2g%2f1juGqbdCHRI5TALuM6uv50u%252b5gQ%3d</t>
+  </si>
+  <si>
+    <t>Part #</t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Order #</t>
+  </si>
+  <si>
+    <t>MTRBRD</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>FUSEBRD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -764,6 +795,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -811,13 +849,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -838,9 +877,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="3"/>
@@ -1157,9 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1443,10 +1484,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1057750</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="11">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11">
+        <v>32.72</v>
+      </c>
+      <c r="G2" s="11">
+        <f>F2+E2*D2</f>
+        <v>164.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10577545</v>
+      </c>
+      <c r="B3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="11">
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>32.72</v>
+      </c>
+      <c r="G3" s="12">
+        <f>F3+E3*D3</f>
+        <v>98.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1636,7 @@
         <v>5.74</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J7" si="0">H2*D2</f>
+        <f t="shared" ref="J2:J6" si="0">H2*D2</f>
         <v>11.48</v>
       </c>
     </row>
@@ -1641,11 +1768,11 @@
         <v>134</v>
       </c>
       <c r="H8">
-        <v>1.28</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J27" si="1">H8*D8</f>
-        <v>25.6</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1668,11 +1795,11 @@
         <v>136</v>
       </c>
       <c r="H9">
-        <v>1.1100000000000001</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>22.200000000000003</v>
+        <v>18.939999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1686,7 +1813,7 @@
         <v>186</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>203</v>
@@ -1695,11 +1822,11 @@
         <v>138</v>
       </c>
       <c r="H10">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>7.8000000000000007</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1749,11 +1876,11 @@
         <v>144</v>
       </c>
       <c r="H12">
-        <v>0.42</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>6.72</v>
+        <v>5.3440000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1776,11 +1903,11 @@
         <v>146</v>
       </c>
       <c r="H13">
-        <v>0.7</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>5.5100000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1803,11 +1930,11 @@
         <v>148</v>
       </c>
       <c r="H14">
-        <v>0.1</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1830,11 +1957,11 @@
         <v>151</v>
       </c>
       <c r="H15">
-        <v>0.47</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>7.05</v>
+        <v>4.8449999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1857,14 +1984,14 @@
         <v>154</v>
       </c>
       <c r="H16">
-        <v>0.36</v>
+        <v>0.193</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>5.3999999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -1884,14 +2011,14 @@
         <v>157</v>
       </c>
       <c r="H17">
-        <v>0.28999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>158</v>
       </c>
@@ -1911,14 +2038,14 @@
         <v>160</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -1938,14 +2065,14 @@
         <v>163</v>
       </c>
       <c r="H19">
-        <v>0.49</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -1965,14 +2092,14 @@
         <v>163</v>
       </c>
       <c r="H20">
-        <v>0.48</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>14.399999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.4599999999999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -1992,14 +2119,14 @@
         <v>168</v>
       </c>
       <c r="H21">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>169</v>
       </c>
@@ -2019,14 +2146,14 @@
         <v>168</v>
       </c>
       <c r="H22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -2037,7 +2164,7 @@
         <v>196</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>215</v>
@@ -2046,14 +2173,14 @@
         <v>173</v>
       </c>
       <c r="H23">
-        <v>0.1</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -2073,14 +2200,14 @@
         <v>176</v>
       </c>
       <c r="H24">
-        <v>0.23</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>2.3000000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -2100,14 +2227,14 @@
         <v>179</v>
       </c>
       <c r="H25">
-        <v>0.71</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>117</v>
       </c>
@@ -2134,7 +2261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>
@@ -2161,10 +2288,13 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J30">
         <f>SUM(J2:J28)</f>
-        <v>193.10999999999999</v>
+        <v>155.93899999999999</v>
+      </c>
+      <c r="M30">
+        <v>193.11</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>

--- a/design/AGSE_BOM.xlsx
+++ b/design/AGSE_BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="243">
   <si>
     <t>Manufacturer Number</t>
   </si>
@@ -407,12 +407,6 @@
     <t>Fuse Board, Other PCBs</t>
   </si>
   <si>
-    <t>4-40 1/4" pan head screws</t>
-  </si>
-  <si>
-    <t>90272A106</t>
-  </si>
-  <si>
     <t>Big Red Emergency Stop</t>
   </si>
   <si>
@@ -732,6 +726,36 @@
   </si>
   <si>
     <t>FUSEBRD</t>
+  </si>
+  <si>
+    <t>4-40 1/4" nylon flat head screws</t>
+  </si>
+  <si>
+    <t>94605A106</t>
+  </si>
+  <si>
+    <t>4-40 Starter Tap</t>
+  </si>
+  <si>
+    <t>2522A665</t>
+  </si>
+  <si>
+    <t>Tapping mounting holes for pcbs and other equipment</t>
+  </si>
+  <si>
+    <t>Fastener for 20mm Extruded AL</t>
+  </si>
+  <si>
+    <t>5537T161</t>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>Undercarriage</t>
+  </si>
+  <si>
+    <t>4 pack</t>
   </si>
 </sst>
 </file>
@@ -1198,13 +1222,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="67.7109375" bestFit="1" customWidth="1"/>
@@ -1263,11 +1289,11 @@
         <v>5.71</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <f>F2*G2</f>
-        <v>45.68</v>
+        <v>34.26</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -1293,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="0">F3*G3</f>
+        <f t="shared" ref="H3:H17" si="0">F3*G3</f>
         <v>6.58</v>
       </c>
       <c r="I3" t="s">
@@ -1356,10 +1382,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1368,14 +1394,14 @@
         <v>125</v>
       </c>
       <c r="F6">
-        <v>1.46</v>
+        <v>5.13</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>1.46</v>
+        <v>5.13</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
@@ -1383,48 +1409,90 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>235</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>32</v>
+        <v>6.13</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
+        <v>6.13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
+      <c r="A9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9">
+        <v>1.99</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
       <c r="H10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1464,6 +1532,21 @@
       <c r="H16">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>228</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H2:H17)</f>
+        <v>114.74</v>
       </c>
     </row>
   </sheetData>
@@ -1473,12 +1556,14 @@
     <hyperlink ref="B3" r:id="rId3" location="91290a113/=11i0gxa" display="91290A111"/>
     <hyperlink ref="B4" r:id="rId4" location="8305a12/=11i0icf"/>
     <hyperlink ref="B5" r:id="rId5" location="92745a320/=11in8yp"/>
-    <hyperlink ref="B6" r:id="rId6" location="90272a106/=11indgx"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="E7" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId6" location="94605a106/=11lewhf"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="E8" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId9" location="2522a665/=11leyfk"/>
+    <hyperlink ref="B9" r:id="rId10" location="5537t161/=11lf3cr"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1494,25 +1579,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1520,10 +1605,10 @@
         <v>1057750</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D2" s="11">
         <v>33</v>
@@ -1544,10 +1629,10 @@
         <v>10577545</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D3" s="11">
         <v>33</v>
@@ -1570,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,14 +1688,14 @@
         <v>26</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1715,7 @@
         <v>103</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H2">
         <v>5.74</v>
@@ -1657,7 +1742,7 @@
         <v>105</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H3">
         <v>2.6</v>
@@ -1675,16 +1760,16 @@
         <v>107</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H4">
         <v>0.18</v>
@@ -1699,19 +1784,19 @@
         <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H5">
         <v>0.18</v>
@@ -1738,7 +1823,7 @@
         <v>112</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H6">
         <v>0.64</v>
@@ -1750,13 +1835,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1765,7 +1850,7 @@
         <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H8">
         <v>1.0900000000000001</v>
@@ -1777,13 +1862,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -1792,7 +1877,7 @@
         <v>62</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H9">
         <v>0.94699999999999995</v>
@@ -1804,22 +1889,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H10">
         <v>0.04</v>
@@ -1831,22 +1916,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H11">
         <v>1.49</v>
@@ -1858,22 +1943,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H12">
         <v>0.33400000000000002</v>
@@ -1888,19 +1973,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H13">
         <v>0.55100000000000005</v>
@@ -1915,19 +2000,19 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H14">
         <v>5.2999999999999999E-2</v>
@@ -1939,13 +2024,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -1954,7 +2039,7 @@
         <v>66</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H15">
         <v>0.32300000000000001</v>
@@ -1966,22 +2051,22 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16">
         <v>0.193</v>
@@ -1991,24 +2076,24 @@
         <v>2.895</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H17">
         <v>0.12</v>
@@ -2018,24 +2103,24 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H18">
         <v>7.0000000000000001E-3</v>
@@ -2045,24 +2130,24 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D19">
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19">
         <v>0.35599999999999998</v>
@@ -2072,24 +2157,24 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D20">
         <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H20">
         <v>0.28199999999999997</v>
@@ -2099,24 +2184,24 @@
         <v>8.4599999999999991</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H21">
         <v>0.05</v>
@@ -2126,24 +2211,24 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D22">
         <v>25</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H22">
         <v>0.05</v>
@@ -2153,24 +2238,24 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D23">
         <v>50</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H23">
         <v>4.4999999999999998E-2</v>
@@ -2180,24 +2265,24 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H24">
         <v>0.17499999999999999</v>
@@ -2207,24 +2292,24 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D25">
         <v>10</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H25">
         <v>0.52900000000000003</v>
@@ -2234,15 +2319,15 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D26">
         <v>20</v>
@@ -2251,7 +2336,7 @@
         <v>119</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H26">
         <v>0.95</v>
@@ -2261,15 +2346,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2278,7 +2363,7 @@
         <v>51</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H27">
         <v>4.95</v>
@@ -2288,13 +2373,10 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J30">
         <f>SUM(J2:J28)</f>
         <v>155.93899999999999</v>
-      </c>
-      <c r="M30">
-        <v>193.11</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
